--- a/cariPromo.xlsx
+++ b/cariPromo.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MY WORLD\KULIAH (TUGAS)\TGS SEMS. 8\INTERNSHIT\Task ACC ONE\ACC-ACCOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CCC1CAD-37A0-48E1-BDF5-A51AFE8F98E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C72000-C4B4-4BD6-BC2D-72AE20703388}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="0" windowWidth="17895" windowHeight="11070" xr2:uid="{D207B6A9-21A7-4846-B665-20296598C32C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{D207B6A9-21A7-4846-B665-20296598C32C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>namaPromo</t>
   </si>
@@ -41,19 +42,25 @@
     <t>condition</t>
   </si>
   <si>
-    <t>Toyota</t>
-  </si>
-  <si>
-    <t>Daihatsu</t>
-  </si>
-  <si>
     <t>passed</t>
   </si>
   <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>Paket Hemat</t>
+  </si>
+  <si>
+    <t>Hot Deals Mazda</t>
+  </si>
+  <si>
+    <t>Maret</t>
+  </si>
+  <si>
     <t>Brio</t>
   </si>
   <si>
-    <t>failed</t>
+    <t>Banner</t>
   </si>
 </sst>
 </file>
@@ -96,7 +103,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -114,36 +121,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -224,16 +201,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,47 +523,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6071934-6A59-4FD7-9EF4-5DC762B77E7C}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C232471E-72BE-488C-9A26-168CDA1CC72B}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/cariPromo.xlsx
+++ b/cariPromo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MY WORLD\KULIAH (TUGAS)\TGS SEMS. 8\INTERNSHIT\Task ACC ONE\ACC-ACCOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C72000-C4B4-4BD6-BC2D-72AE20703388}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08262D92-43B5-4A01-9769-EFBDD0D9FAD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{D207B6A9-21A7-4846-B665-20296598C32C}"/>
+    <workbookView xWindow="6450" yWindow="0" windowWidth="13440" windowHeight="11070" activeTab="1" xr2:uid="{D207B6A9-21A7-4846-B665-20296598C32C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
     <t>Brio</t>
   </si>
   <si>
-    <t>Banner</t>
+    <t>Cashbacc</t>
   </si>
 </sst>
 </file>
@@ -568,7 +568,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/cariPromo.xlsx
+++ b/cariPromo.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MY WORLD\KULIAH (TUGAS)\TGS SEMS. 8\INTERNSHIT\Task ACC ONE\ACC-ACCOne\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lieto\git\ACC-ACCOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08262D92-43B5-4A01-9769-EFBDD0D9FAD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6450" yWindow="0" windowWidth="13440" windowHeight="11070" activeTab="1" xr2:uid="{D207B6A9-21A7-4846-B665-20296598C32C}"/>
+    <workbookView xWindow="6450" yWindow="0" windowWidth="13440" windowHeight="11070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,19 +53,19 @@
     <t>Hot Deals Mazda</t>
   </si>
   <si>
-    <t>Maret</t>
-  </si>
-  <si>
     <t>Brio</t>
   </si>
   <si>
-    <t>Cashbacc</t>
+    <t>SERBU TOYOTA</t>
+  </si>
+  <si>
+    <t>Undian Bayar Tagihan ACC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -522,7 +521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6071934-6A59-4FD7-9EF4-5DC762B77E7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -564,16 +563,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C232471E-72BE-488C-9A26-168CDA1CC72B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -586,7 +585,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -602,7 +601,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
